--- a/datas/testcase.xlsx
+++ b/datas/testcase.xlsx
@@ -1897,7 +1897,7 @@
       <c r="G3" s="0" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":{"id":418438,"regname":"ä½¿ç¨è-","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"3000007.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
+","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"4000008.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -1938,7 +1938,7 @@
       <c r="G4" s="0" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":{"id":418438,"regname":"ä½¿ç¨è-","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"3000007.01","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
+","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"4000008.01","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -1979,7 +1979,7 @@
       <c r="G5" s="0" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":{"id":418438,"regname":"ä½¿ç¨è-","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"3500007.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
+","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"4500008.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -2020,7 +2020,7 @@
       <c r="G6" s="0" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":{"id":418438,"regname":"ä½¿ç¨è-","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"4000007.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
+","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"5000008.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
@@ -2383,7 +2383,7 @@
           <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>

--- a/datas/testcase.xlsx
+++ b/datas/testcase.xlsx
@@ -1897,7 +1897,7 @@
       <c r="G3" s="0" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":{"id":418438,"regname":"ä½¿ç¨è-","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"4000008.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
+","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"6000010.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -1938,7 +1938,7 @@
       <c r="G4" s="0" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":{"id":418438,"regname":"ä½¿ç¨è-","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"4000008.01","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
+","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"6000010.01","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -1979,7 +1979,7 @@
       <c r="G5" s="0" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":{"id":418438,"regname":"ä½¿ç¨è-","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"4500008.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
+","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"6500010.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -2020,7 +2020,7 @@
       <c r="G6" s="0" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":{"id":418438,"regname":"ä½¿ç¨è-","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"5000008.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
+","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"7000010.00","type":"1","regtime":"2020-11-07 14:09:32.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
